--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C2" s="9" t="n">
-        <v>0.04815183999999999</v>
+        <v>0.02746989</v>
       </c>
     </row>
     <row r="3">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>0.02270955</v>
+        <v>0.02122207</v>
       </c>
     </row>
     <row r="4">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.07086139</v>
+        <v>0.04869196</v>
       </c>
     </row>
     <row r="6">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
     </row>
     <row r="9">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
   </sheetData>
@@ -1447,34 +1447,34 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>0.04815183999999999</v>
+        <v>0.02746989</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>0.02270955</v>
+        <v>0.02122207</v>
       </c>
       <c r="D4" s="11" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.07086139</v>
+        <v>0.04869196</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
     <row r="5">
@@ -1484,34 +1484,34 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>0.04815183999999999</v>
+        <v>0.02746989</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.02270955</v>
+        <v>0.02122207</v>
       </c>
       <c r="D5" s="11" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.07086139</v>
+        <v>0.04869196</v>
       </c>
       <c r="F5" s="11" t="n">
         <v>0.008423449999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>60.73272015179699</v>
+        <v>48.09540892729301</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.64299152271734</v>
+        <v>37.15646968129967</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>89.37571167451432</v>
+        <v>85.25187860859268</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.62428832548568</v>
+        <v>14.74812139140733</v>
       </c>
     </row>
     <row r="6">

--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>0.02122207</v>
+        <v>0.02118677</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.04869196</v>
+        <v>0.04865666</v>
       </c>
     </row>
     <row r="6">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
     </row>
     <row r="7">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
     </row>
     <row r="9">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
   </sheetData>
@@ -1450,31 +1450,31 @@
         <v>0.02746989</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>0.02122207</v>
+        <v>0.02118677</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.04869196</v>
+        <v>0.04865666</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
     <row r="5">
@@ -1487,31 +1487,31 @@
         <v>0.02746989</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.02122207</v>
+        <v>0.02118677</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.04869196</v>
+        <v>0.04865666</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>0.008423449999999999</v>
+        <v>0.00776831</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>48.09540892729301</v>
+        <v>48.68392486517937</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.15646968129967</v>
+        <v>37.54857113791996</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>85.25187860859268</v>
+        <v>86.23249600309933</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>14.74812139140733</v>
+        <v>13.76750399690066</v>
       </c>
     </row>
     <row r="6">

--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C2" s="9" t="n">
-        <v>0.02746989</v>
+        <v>0.02678414</v>
       </c>
     </row>
     <row r="3">
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>0.02118677</v>
+        <v>0.02084913</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C4" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
     </row>
     <row r="5">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.04865666</v>
+        <v>0.04763327000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1264,7 +1264,7 @@
         </is>
       </c>
       <c r="C6" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
     </row>
     <row r="7">
@@ -1279,7 +1279,7 @@
         </is>
       </c>
       <c r="C7" s="4" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
     </row>
     <row r="8">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="C8" s="4" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
     </row>
     <row r="9">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="C10" s="4" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         </is>
       </c>
       <c r="C11" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
   </sheetData>
@@ -1447,34 +1447,34 @@
         </is>
       </c>
       <c r="B4" s="9" t="n">
-        <v>0.02746989</v>
+        <v>0.02678414</v>
       </c>
       <c r="C4" s="9" t="n">
-        <v>0.02118677</v>
+        <v>0.02084913</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.04865666</v>
+        <v>0.04763327000000001</v>
       </c>
       <c r="F4" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="5">
@@ -1484,34 +1484,34 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>0.02746989</v>
+        <v>0.02678414</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>0.02118677</v>
+        <v>0.02084913</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.04865666</v>
+        <v>0.04763327000000001</v>
       </c>
       <c r="F5" s="11" t="n">
-        <v>0.00776831</v>
+        <v>0.00601671</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>48.68392486517937</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.54857113791996</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>86.23249600309933</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.76750399690066</v>
+        <v>11.21474788993398</v>
       </c>
     </row>
     <row r="6">

--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -639,7 +639,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>

--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -9,9 +9,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Number" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Tier" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Stocks" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary of Area by Tier" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Number" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Area)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status by Landings (Tier)" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Comparison by Landings" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -52,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -126,27 +128,6 @@
       <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin"/>
@@ -178,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -196,12 +177,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,7 +893,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
@@ -933,6 +915,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>No. of stocks</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ASFIS species</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No. of ISSCAAP groups</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>No. of U</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>No. of MSF</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>No. of O</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sustainable</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Unsustainable</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Tier 1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>51.85185185185185</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,161 +1301,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="C1" s="8" t="inlineStr">
-        <is>
-          <t>Sharks</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="inlineStr">
-        <is>
-          <t>Total Landings</t>
-        </is>
-      </c>
-      <c r="B2" s="8" t="inlineStr">
-        <is>
-          <t>U (Mt)</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>0.02678414</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="n"/>
-      <c r="B3" s="8" t="inlineStr">
-        <is>
-          <t>MSF (Mt)</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>0.02084913</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="n"/>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>O (Mt)</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>0.00601671</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0.04763327000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (Mt)</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="n">
-        <v>0.00601671</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t>Weighted % by Landings</t>
-        </is>
-      </c>
-      <c r="B7" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>49.92385831271513</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>38.86139379735091</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>11.21474788993398</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>88.78525211006604</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="n"/>
-      <c r="B11" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.21474788993398</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="A2:A6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,19 +1322,19 @@
           <t>Total Landings</t>
         </is>
       </c>
-      <c r="C1" s="13" t="n"/>
-      <c r="D1" s="13" t="n"/>
-      <c r="E1" s="13" t="n"/>
-      <c r="F1" s="14" t="n"/>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
       <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Weighted % by Landings</t>
         </is>
       </c>
-      <c r="H1" s="13" t="n"/>
-      <c r="I1" s="13" t="n"/>
-      <c r="J1" s="13" t="n"/>
-      <c r="K1" s="14" t="n"/>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
@@ -1424,11 +1390,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="inlineStr">
-        <is>
-          <t>Area</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="n"/>
       <c r="B3" s="4" t="n"/>
       <c r="C3" s="4" t="n"/>
       <c r="D3" s="4" t="n"/>
@@ -1446,19 +1408,19 @@
           <t>Sharks</t>
         </is>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="11" t="n">
         <v>0.02678414</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="11" t="n">
         <v>0.02084913</v>
       </c>
-      <c r="D4" s="11" t="n">
+      <c r="D4" s="12" t="n">
         <v>0.00601671</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="11" t="n">
         <v>0.04763327000000001</v>
       </c>
-      <c r="F4" s="11" t="n">
+      <c r="F4" s="12" t="n">
         <v>0.00601671</v>
       </c>
       <c r="G4" s="4" t="n">
@@ -1475,65 +1437,6 @@
       </c>
       <c r="K4" s="4" t="n">
         <v>11.21474788993398</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="B5" s="9" t="n">
-        <v>0.02678414</v>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0.02084913</v>
-      </c>
-      <c r="D5" s="11" t="n">
-        <v>0.00601671</v>
-      </c>
-      <c r="E5" s="9" t="n">
-        <v>0.04763327000000001</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>0.00601671</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>49.92385831271513</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>38.86139379735091</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>11.21474788993398</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>88.78525211006604</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>11.21474788993398</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>48,58,88</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1543,4 +1446,335 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Total Landings</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
+        <is>
+          <t>Weighted % by Landings</t>
+        </is>
+      </c>
+      <c r="H1" s="9" t="n"/>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>U (Mt)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (Mt)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (Mt)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (Mt)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>0.02678414</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.02084913</v>
+      </c>
+      <c r="D4" s="12" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.04763327000000001</v>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>49.92385831271513</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>38.86139379735091</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>88.78525211006604</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Sharks Total</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.02678414</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.02084913</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.04763327000000001</v>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>0.00601671</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>49.92385831271513</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>38.86139379735091</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>88.78525211006604</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" s="8" t="inlineStr">
+        <is>
+          <t>Updated SoSI Categories</t>
+        </is>
+      </c>
+      <c r="C1" s="9" t="n"/>
+      <c r="D1" s="9" t="n"/>
+      <c r="E1" s="9" t="n"/>
+      <c r="F1" s="9" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="8" t="inlineStr">
+        <is>
+          <t>Previous SoSI Categories</t>
+        </is>
+      </c>
+      <c r="I1" s="9" t="n"/>
+      <c r="J1" s="9" t="n"/>
+      <c r="K1" s="9" t="n"/>
+      <c r="L1" s="9" t="n"/>
+      <c r="M1" s="10" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="8" t="inlineStr"/>
+      <c r="B2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Coverage (%)</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
+          <t>U (%)</t>
+        </is>
+      </c>
+      <c r="J2" s="8" t="inlineStr">
+        <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="K2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="4" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="4" t="n"/>
+      <c r="F3" s="4" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="4" t="n"/>
+      <c r="I3" s="4" t="n"/>
+      <c r="J3" s="4" t="n"/>
+      <c r="K3" s="4" t="n"/>
+      <c r="L3" s="4" t="n"/>
+      <c r="M3" s="4" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>Sharks</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>63.87449876656093</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>49.92385831271513</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>38.86139379735091</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>88.78525211006604</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>11.21474788993398</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -920,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1038,6 +1038,52 @@
         <v>70.37037037037037</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>51.85185185185185</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>18.51851851851852</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>29.62962962962963</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>70.37037037037037</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>29.62962962962963</v>
       </c>
     </row>
@@ -1636,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1654,77 +1700,65 @@
       <c r="C1" s="9" t="n"/>
       <c r="D1" s="9" t="n"/>
       <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="8" t="inlineStr">
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="8" t="inlineStr">
         <is>
           <t>Previous SoSI Categories</t>
         </is>
       </c>
+      <c r="H1" s="9" t="n"/>
       <c r="I1" s="9" t="n"/>
       <c r="J1" s="9" t="n"/>
-      <c r="K1" s="9" t="n"/>
-      <c r="L1" s="9" t="n"/>
-      <c r="M1" s="10" t="n"/>
+      <c r="K1" s="10" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="8" t="inlineStr"/>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>Coverage (%)</t>
+          <t>U (%)</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
+          <t>MSF (%)</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>O (%)</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>Sustainable (%)</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>Unsustainable (%)</t>
+        </is>
+      </c>
+      <c r="G2" s="8" t="inlineStr">
+        <is>
           <t>U (%)</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="H2" s="8" t="inlineStr">
         <is>
           <t>MSF (%)</t>
         </is>
       </c>
-      <c r="E2" s="8" t="inlineStr">
+      <c r="I2" s="8" t="inlineStr">
         <is>
           <t>O (%)</t>
         </is>
       </c>
-      <c r="F2" s="8" t="inlineStr">
+      <c r="J2" s="8" t="inlineStr">
         <is>
           <t>Sustainable (%)</t>
         </is>
       </c>
-      <c r="G2" s="8" t="inlineStr">
-        <is>
-          <t>Unsustainable (%)</t>
-        </is>
-      </c>
-      <c r="H2" s="8" t="inlineStr">
-        <is>
-          <t>Coverage (%)</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>U (%)</t>
-        </is>
-      </c>
-      <c r="J2" s="8" t="inlineStr">
-        <is>
-          <t>MSF (%)</t>
-        </is>
-      </c>
       <c r="K2" s="8" t="inlineStr">
-        <is>
-          <t>O (%)</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Sustainable (%)</t>
-        </is>
-      </c>
-      <c r="M2" s="8" t="inlineStr">
         <is>
           <t>Unsustainable (%)</t>
         </is>
@@ -1742,8 +1776,6 @@
       <c r="I3" s="4" t="n"/>
       <c r="J3" s="4" t="n"/>
       <c r="K3" s="4" t="n"/>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
@@ -1752,28 +1784,25 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>63.87449876656093</v>
+        <v>49.92385831271513</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>49.92385831271513</v>
+        <v>38.86139379735091</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>38.86139379735091</v>
+        <v>11.21474788993398</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>88.78525211006604</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>88.78525211006604</v>
-      </c>
-      <c r="G4" s="4" t="n">
         <v>11.21474788993398</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
+++ b/output/aggregate_tables/Area Statistics/area_Sharks_summary.xlsx
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>5</v>
@@ -641,25 +641,25 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
   </sheetData>
@@ -751,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>5</v>
@@ -763,25 +763,25 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H2" s="3" t="n">
         <v>8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="3">
@@ -794,10 +794,10 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>5</v>
@@ -806,25 +806,25 @@
         <v>8</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
   </sheetData>
@@ -881,10 +881,10 @@
         <v>27</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="n">
         <v>1</v>
@@ -900,10 +900,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" s="3" t="n">
         <v>1</v>
@@ -1002,16 +1002,16 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>5</v>
@@ -1020,25 +1020,25 @@
         <v>8</v>
       </c>
       <c r="H2" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
     <row r="3">
@@ -1048,16 +1048,16 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>5</v>
@@ -1066,25 +1066,25 @@
         <v>8</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>8</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
     </row>
   </sheetData>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E4" s="3" t="n">
         <v>5</v>
@@ -1306,25 +1306,25 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="n">
         <v>8</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>51.85185185185185</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>18.51851851851852</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>70.37037037037037</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>29.62962962962963</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="N4" s="4" t="n"/>
       <c r="O4" s="4" t="n"/>
@@ -1455,7 +1455,7 @@
         </is>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.02678414</v>
+        <v>0.021544435</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>0.02084913</v>
@@ -1464,25 +1464,25 @@
         <v>0.00601671</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.04763327000000001</v>
+        <v>0.042393565</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>0.00601671</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
     </row>
   </sheetData>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="11" t="n">
-        <v>0.02678414</v>
+        <v>0.021544435</v>
       </c>
       <c r="C4" s="11" t="n">
         <v>0.02084913</v>
@@ -1609,25 +1609,25 @@
         <v>0.00601671</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.04763327000000001</v>
+        <v>0.042393565</v>
       </c>
       <c r="F4" s="12" t="n">
         <v>0.00601671</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
     </row>
     <row r="5">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="B5" s="11" t="n">
-        <v>0.02678414</v>
+        <v>0.021544435</v>
       </c>
       <c r="C5" s="11" t="n">
         <v>0.02084913</v>
@@ -1646,25 +1646,25 @@
         <v>0.00601671</v>
       </c>
       <c r="E5" s="11" t="n">
-        <v>0.04763327000000001</v>
+        <v>0.042393565</v>
       </c>
       <c r="F5" s="12" t="n">
         <v>0.00601671</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
     </row>
   </sheetData>
@@ -1784,19 +1784,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>49.92385831271513</v>
+        <v>44.50384758194412</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>38.86139379735091</v>
+        <v>43.06757191525973</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>88.78525211006604</v>
+        <v>87.57141949720386</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.21474788993398</v>
+        <v>12.42858050279615</v>
       </c>
     </row>
   </sheetData>
